--- a/GUI + Reviews/Review Comparison/index_comparison_results_20251215_094623.xlsx
+++ b/GUI + Reviews/Review Comparison/index_comparison_results_20251215_094623.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/Review Comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_826E1D0C608E07ED7EE028D73604DDDA47C36038" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{615F5B23-6B0B-46A1-8148-66D8613CE3B7}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_826E1D0C608E07ED7EE028D73604DDDA47C36038" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F018417-AF4E-4E97-B694-8C608B24087B}"/>
   <bookViews>
     <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="287">
   <si>
     <t>Mnemo</t>
   </si>
@@ -1312,8 +1312,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="M94" sqref="M94"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="M124" sqref="M124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5023,6 +5023,9 @@
       <c r="L94" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="M94" s="2" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -5100,7 +5103,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>86</v>
       </c>
@@ -5138,7 +5141,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>116</v>
       </c>
@@ -5213,8 +5216,11 @@
       <c r="L99" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M99" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>50</v>
       </c>
@@ -5252,7 +5258,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>82</v>
       </c>
@@ -5290,7 +5296,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -5327,8 +5333,11 @@
       <c r="L102" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M102" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>124</v>
       </c>
@@ -5366,7 +5375,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -5404,7 +5413,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>133</v>
       </c>
@@ -5441,8 +5450,11 @@
       <c r="L105" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -5479,8 +5491,11 @@
       <c r="L106" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M106" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -5518,7 +5533,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>46</v>
       </c>
@@ -5556,7 +5571,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>71</v>
       </c>
@@ -5594,7 +5609,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>39</v>
       </c>
@@ -5631,8 +5646,11 @@
       <c r="L110" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>118</v>
       </c>
@@ -5669,8 +5687,11 @@
       <c r="L111" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -5707,8 +5728,11 @@
       <c r="L112" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -5745,8 +5769,11 @@
       <c r="L113" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M113" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>87</v>
       </c>
@@ -5784,7 +5811,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -5822,7 +5849,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>55</v>
       </c>
@@ -5860,7 +5887,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>81</v>
       </c>
@@ -5898,7 +5925,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>28</v>
       </c>
@@ -5935,8 +5962,11 @@
       <c r="L118" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M118" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -5974,7 +6004,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -6012,7 +6042,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>63</v>
       </c>
@@ -6050,7 +6080,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>25</v>
       </c>
@@ -6087,8 +6117,11 @@
       <c r="L122" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>56</v>
       </c>
@@ -6125,8 +6158,11 @@
       <c r="L123" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -6164,7 +6200,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>117</v>
       </c>
@@ -6202,7 +6238,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>53</v>
       </c>
@@ -6240,7 +6276,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>137</v>
       </c>
@@ -6278,7 +6314,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>47</v>
       </c>
